--- a/documentos/outros-documentos/planejamento-sprint-1.xlsx
+++ b/documentos/outros-documentos/planejamento-sprint-1.xlsx
@@ -192,9 +192,6 @@
     <t>Banco: tabela cliente, tabela profissional</t>
   </si>
   <si>
-    <t>Instalar Netbeans 8.1</t>
-  </si>
-  <si>
     <t>Executar projeto repositório</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>Glassfish 4.1.1, Apache Tomcat 8.0.27</t>
+  </si>
+  <si>
+    <t>Instalar Netbeans 8.0.2</t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>43</v>
@@ -1270,7 +1270,7 @@
         <v>42453</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="9"/>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="F31" s="16">
         <v>42453</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>43</v>
@@ -1341,7 +1341,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>43</v>
@@ -1462,7 +1462,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>39</v>
@@ -1543,7 +1543,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>39</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -1626,13 +1626,13 @@
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="7">
         <v>42431</v>
@@ -1649,10 +1649,10 @@
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>38</v>
@@ -1675,7 +1675,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>33</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C54" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="19"/>
@@ -1731,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>9</v>
@@ -1746,7 +1746,7 @@
         <v>42431</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>33</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>9</v>
@@ -1769,7 +1769,7 @@
         <v>42432</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1777,7 +1777,7 @@
         <v>34</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>9</v>
@@ -1792,7 +1792,7 @@
         <v>42433</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1800,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>9</v>
@@ -1815,7 +1815,7 @@
         <v>42434</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1823,7 +1823,7 @@
         <v>36</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>9</v>
@@ -1838,7 +1838,7 @@
         <v>42434</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>37</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
@@ -1855,13 +1855,13 @@
         <v>23</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="7">
         <v>42435</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
